--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rdbf174b47dfe4a59"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R08bdbc14f8844635"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R78b5009f30e14ec9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Ra040b766c633406b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1a8243d9f68f450d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb593c23975d4c9f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a6f2ce9d5674b2c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6315d69d297645ce"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R78b5009f30e14ec9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Ra040b766c633406b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rc929d9c4de6d4527"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5cc6868546f645c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb593c23975d4c9f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5fe1a50dc910486a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6315d69d297645ce"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf700d591b95944bb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rc929d9c4de6d4527"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5cc6868546f645c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R39e32a41399640e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3df1cc5305b8449e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5fe1a50dc910486a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R308e222934be495c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf700d591b95944bb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rec5742ea92ad40dc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R39e32a41399640e0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R3df1cc5305b8449e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rcc7c780af764403b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R251778ae92dd44bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R308e222934be495c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5ebb65059144f05"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rec5742ea92ad40dc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbcffb1be35da413f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rcc7c780af764403b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R251778ae92dd44bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R657dff47713e48af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R94f63b0780ac41a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5ebb65059144f05"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfba5c2031a734b18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbcffb1be35da413f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcd6e7bf2b8a84c86"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R657dff47713e48af"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R94f63b0780ac41a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R8436f1a50b604e4d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb9b01c8890d94782"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfba5c2031a734b18"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R55080f7ca09343f3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcd6e7bf2b8a84c86"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf4e69d24d847496d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R8436f1a50b604e4d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rb9b01c8890d94782"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rfb91a2a66edf432f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R921f20a22428463d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R55080f7ca09343f3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3be4192917a74878"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf4e69d24d847496d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R184faba466bb417a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rfb91a2a66edf432f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R921f20a22428463d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R45084bd85e24443d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rc734588cfdf34320"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3be4192917a74878"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9b8789a676d47a4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R184faba466bb417a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7275bf59c25244a4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R45084bd85e24443d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rc734588cfdf34320"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R4c81945cc2774853"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rda57ea9d737b4f15"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9b8789a676d47a4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R973ba5c7f51e4ba1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7275bf59c25244a4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R792388e12ff34a87"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R4c81945cc2774853"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rda57ea9d737b4f15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rcd6eec7e19f54529"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5cff4fc7248a4973"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R973ba5c7f51e4ba1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R66be83111c1649ba"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R792388e12ff34a87"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8fd0e339259449ba"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rcd6eec7e19f54529"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R5cff4fc7248a4973"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R6b1a915137af416b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R0deb1a4e79a44aa9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R66be83111c1649ba"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99f47253d92149e1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8fd0e339259449ba"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44bbabcc9d70426a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R6b1a915137af416b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R0deb1a4e79a44aa9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R2c5e8c5a2c764d57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R36c2a90a557c4ada"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,17 +31,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99f47253d92149e1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3ffb3dfe5b8d48c9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44bbabcc9d70426a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R385b709d61864ba8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/062_JsonToWorkbookLineChart.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="R2c5e8c5a2c764d57"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="R36c2a90a557c4ada"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Prices" sheetId="1" r:id="Rbdd4c124d6f649b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Trend" sheetId="2" r:id="Rc5507f344ffa4602"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -203,7 +203,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3ffb3dfe5b8d48c9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd7ada035e257483b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3154,6 +3154,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R385b709d61864ba8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7b59b16ccc5d40ed"/>
 </x:worksheet>
 </file>